--- a/Training Data.xlsx
+++ b/Training Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keegan Fernandes\Desktop\Data projects\Loan_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5C8874-905A-4614-94B6-0B9D884A6ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92164430-7936-4D9E-BBD7-F18BD4DCA810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>models</t>
   </si>
@@ -46,13 +46,22 @@
   </si>
   <si>
     <t>Hidden Layers- 5</t>
+  </si>
+  <si>
+    <t>hidden layers-9</t>
+  </si>
+  <si>
+    <t>XgBoost</t>
+  </si>
+  <si>
+    <t>hidden layers - 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,9 +71,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,12 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,13 +398,13 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -403,7 +425,7 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>0.51708072423934903</v>
       </c>
       <c r="C2">
@@ -432,21 +454,56 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.52639752626419001</v>
+        <v>0.64324000000000003</v>
       </c>
       <c r="C4">
-        <v>0.52087318897247303</v>
+        <v>0.68</v>
       </c>
       <c r="D4">
         <v>0.52087318897247303</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>0.515527963638305</v>
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.74001672267913798</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.70850402116775502</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.58352291584014804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.92508324084350702</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.89397211859414805</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.97594425645142802</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.740916722679138</v>
+      </c>
+      <c r="C7">
+        <v>0.73850402116775504</v>
+      </c>
+      <c r="D7">
+        <v>0.54925245046615601</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
   </sheetData>
